--- a/AppTec/practice/TeamC/excelファイル/画面仕様,DB(0612).xlsx
+++ b/AppTec/practice/TeamC/excelファイル/画面仕様,DB(0612).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Documents\研修200407-\200609 グループワーク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\Kenshu\Systemi_Training_2020\AppTec\practice\TeamC\excelファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="3" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="ユーザ新規" sheetId="5" r:id="rId5"/>
     <sheet name="ユーザ編集" sheetId="8" r:id="rId6"/>
     <sheet name="DB規約一覧" sheetId="2" r:id="rId7"/>
-    <sheet name="DB項目" sheetId="9" r:id="rId8"/>
+    <sheet name="支社部署情報" sheetId="9" r:id="rId8"/>
+    <sheet name="進捗管理" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">DB規約一覧!$A$1:$G$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ホーム!$A$1:$P$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">DB規約一覧!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ホーム!$A$1:$P$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ユーザー管理!$A$1:$H$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ユーザ新規!$A$1:$F$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">ユーザ編集!$A$1:$P$38</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="227">
   <si>
     <t>投稿日</t>
     <rPh sb="0" eb="2">
@@ -169,13 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -868,16 +862,6 @@
   </si>
   <si>
     <t>login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使うファイル名</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1065,13 +1049,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必要ファイル</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>：ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1095,14 +1072,6 @@
   </si>
   <si>
     <t>aaadoao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・UserManagementServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・userManagement.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1273,6 +1242,244 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺井</t>
+    <rPh sb="0" eb="2">
+      <t>テライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小串</t>
+    <rPh sb="0" eb="2">
+      <t>コグシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劉</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舩木</t>
+    <rPh sb="0" eb="2">
+      <t>フナキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teamc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSPファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Servletファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userManagement.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserManagementServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSP作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Servlet作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bean作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト仕様書作成</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書作成</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TweetServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newUser.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newUserServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daoファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TweetDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daoに必要なSQL文</t>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT、SELECT、UPDATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT、SELECT、DELETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommentDao
+TweetDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBUtil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1389,7 +1596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,8 +1633,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2208,13 +2427,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2247,9 +2520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2425,8 +2695,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2443,8 +2764,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,106 +2815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -2599,10 +2857,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2663,6 +2984,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13188,15 +13518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>300692</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>116167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>307042</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13205,8 +13535,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7156450" y="7918450"/>
-          <a:ext cx="6350" cy="361950"/>
+          <a:off x="7143751" y="8176932"/>
+          <a:ext cx="6350" cy="364938"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13240,15 +13570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>79936</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>153147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>162486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13257,8 +13587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6223000" y="7962900"/>
-          <a:ext cx="742950" cy="330200"/>
+          <a:off x="6265583" y="8213912"/>
+          <a:ext cx="739962" cy="333188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13306,13 +13636,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13364,13 +13694,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13416,13 +13746,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13544,13 +13874,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13750,15 +14080,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>245409</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>132229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>264459</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13767,8 +14097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9512300" y="7581900"/>
-          <a:ext cx="2139950" cy="584200"/>
+          <a:off x="9337115" y="7729817"/>
+          <a:ext cx="2133226" cy="824753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14470,13 +14800,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14542,13 +14872,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14604,6 +14934,189 @@
               </a:solidFill>
             </a:rPr>
             <a:t>投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460863</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3847354" y="7888940"/>
+          <a:ext cx="826921" cy="247375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348803</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1494117" y="7903882"/>
+          <a:ext cx="826921" cy="247375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330824" y="1718235"/>
+          <a:ext cx="1673411" cy="522942"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59909"/>
+            <a:gd name="adj2" fmla="val 196667"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最大投稿表示：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15055,8 +15568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1748308" y="5544751"/>
-          <a:ext cx="3303118" cy="1358385"/>
+          <a:off x="1739525" y="5542429"/>
+          <a:ext cx="3304127" cy="1357780"/>
           <a:chOff x="1371599" y="5537200"/>
           <a:chExt cx="3308609" cy="1339850"/>
         </a:xfrm>
@@ -15227,7 +15740,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>cansel</a:t>
+              <a:t>Cancel</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -15256,8 +15769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1725141" y="3396049"/>
-          <a:ext cx="3294277" cy="2110602"/>
+          <a:off x="1718982" y="3394635"/>
+          <a:ext cx="3292662" cy="2109694"/>
           <a:chOff x="1720850" y="3422650"/>
           <a:chExt cx="3295650" cy="2082800"/>
         </a:xfrm>
@@ -18736,179 +19249,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="8.6640625" style="34"/>
-    <col min="11" max="11" width="15.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="34"/>
+    <col min="1" max="10" width="8.6640625" style="33"/>
+    <col min="11" max="11" width="15.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="54"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="52"/>
-      <c r="J2" s="34" t="s">
-        <v>150</v>
+      <c r="B2" s="53"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="51"/>
+      <c r="J2" s="33" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="47"/>
-      <c r="C3" s="51" t="s">
-        <v>141</v>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="46"/>
-      <c r="J3" s="34" t="s">
-        <v>149</v>
+      <c r="H3" s="45"/>
+      <c r="J3" s="33" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="47"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="46"/>
-      <c r="J4" s="34" t="s">
-        <v>148</v>
+      <c r="H4" s="45"/>
+      <c r="J4" s="33" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="46"/>
-      <c r="J5" s="34" t="s">
-        <v>146</v>
+      <c r="B5" s="46"/>
+      <c r="C5" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="47"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="46"/>
-      <c r="J6" s="34" t="s">
-        <v>144</v>
+      <c r="H6" s="45"/>
+      <c r="J6" s="33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="47"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="46"/>
-      <c r="J7" s="34" t="s">
-        <v>143</v>
+      <c r="B7" s="46"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="45"/>
+      <c r="J7" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="47"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="46"/>
-      <c r="J8" s="34" t="s">
-        <v>142</v>
+      <c r="H8" s="45"/>
+      <c r="J8" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="47"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="47"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="47"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="46"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="47"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="47"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="46"/>
+      <c r="G13" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="45"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="44"/>
+      <c r="H14" s="43"/>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G29" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G30" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>138</v>
-      </c>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18924,10 +19427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="78" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -18939,41 +19442,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="L1" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="83"/>
+      <c r="A1" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="14"/>
-      <c r="L2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="83"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
@@ -18986,20 +19480,20 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="125"/>
+      <c r="A5" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="120"/>
       <c r="C5" s="5"/>
       <c r="J5" s="5"/>
       <c r="L5" s="1"/>
@@ -19009,27 +19503,27 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="123"/>
+      <c r="A6" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="118"/>
       <c r="C6" s="5"/>
-      <c r="I6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="80" t="s">
+      <c r="I6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="109"/>
     </row>
     <row r="7" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="121"/>
+      <c r="A7" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="116"/>
       <c r="C7" s="5"/>
       <c r="J7" s="5"/>
       <c r="L7" s="4"/>
@@ -19043,17 +19537,17 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="119"/>
+      <c r="H8" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="114"/>
       <c r="J8" s="5"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="P8" s="6"/>
@@ -19064,9 +19558,9 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="J9" s="5"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -19075,19 +19569,19 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="119"/>
+      <c r="H10" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="114"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -19096,165 +19590,165 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="28"/>
-      <c r="M11" s="22" t="s">
+      <c r="J11" s="27"/>
+      <c r="M11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
+      <c r="N11" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
     </row>
     <row r="12" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="A12" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="94"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="124"/>
     </row>
     <row r="14" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="L14" s="22" t="s">
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
+      <c r="L14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="127"/>
-      <c r="O14" s="12"/>
+      <c r="M14" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="122"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="109"/>
     </row>
     <row r="16" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="L16" s="27" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="109"/>
+      <c r="L16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="12"/>
+      <c r="M16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="109"/>
     </row>
     <row r="18" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="22" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="116"/>
+      <c r="M18" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="111"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
+    <row r="20" spans="2:16" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="108"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="22" t="s">
+      <c r="B22" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="21" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="1"/>
@@ -19264,33 +19758,33 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="109"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -19298,35 +19792,35 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="109"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="24" t="s">
         <v>14</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="27" t="s">
+      <c r="B26" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="7"/>
@@ -19336,247 +19830,281 @@
       <c r="P26" s="9"/>
     </row>
     <row r="27" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
     </row>
     <row r="28" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="L28" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="119"/>
-      <c r="N28" s="17" t="s">
-        <v>37</v>
+      <c r="B28" s="108"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="109"/>
+      <c r="L28" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="114"/>
+      <c r="N28" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="109"/>
     </row>
     <row r="30" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="109"/>
     </row>
     <row r="31" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="23" t="s">
+      <c r="B31" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="126"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79"/>
-      <c r="L32" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="112"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
+      <c r="L32" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="102"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
+      <c r="B33" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="109"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="M35" s="12" t="s">
+    <row r="35" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="M36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="140"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="M37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="M36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="94"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="97"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="124"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="139"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="82"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="109"/>
     </row>
-    <row r="41" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="82"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="83"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="109"/>
     </row>
     <row r="42" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="98" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="109"/>
+    </row>
+    <row r="43" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="83"/>
+      <c r="B43" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="111" t="s">
+      <c r="C43" s="96"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="21" t="s">
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="77" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="83"/>
+      <c r="B44" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="79"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="82"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="107"/>
     </row>
     <row r="45" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="87" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="109"/>
+    </row>
+    <row r="46" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="83"/>
+      <c r="B46" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="21" t="s">
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="20" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="39">
+    <mergeCell ref="B44:I45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="B39:I42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B14:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B19:I21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:I25"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B27:I30"/>
@@ -19590,34 +20118,17 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B23:I25"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B33:I33"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B33:I33"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B43:I44"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="B38:I41"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B14:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B19:I21"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19633,8 +20144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="61" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="61" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -19648,165 +20159,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="130" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="132"/>
+      <c r="B4" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="148"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="133" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
+      <c r="B5" s="149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="151"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="133"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="56"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="151"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="133"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="151"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="133"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
     </row>
     <row r="12" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="136" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="55"/>
+      <c r="B12" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="138" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19833,59 +20344,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E3" zoomScale="74" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="36"/>
-    <col min="4" max="5" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="36"/>
+    <col min="1" max="1" width="10.4140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="35"/>
+    <col min="4" max="5" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="A1" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G4" s="5"/>
@@ -19893,110 +20404,95 @@
     </row>
     <row r="6" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="7" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>173</v>
+      <c r="B7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="64">
+      <c r="B8" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="63">
         <f ca="1">TODAY()</f>
         <v>43994</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="36" t="s">
-        <v>171</v>
+      <c r="B32" s="35" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="36" t="s">
-        <v>167</v>
+      <c r="A34" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -20014,106 +20510,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="34"/>
-    <col min="3" max="3" width="19.4140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="34"/>
+    <col min="1" max="1" width="14.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="33"/>
+    <col min="3" max="3" width="19.4140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="146" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="A4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="146" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="A6" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="A8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="162" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="163"/>
+      <c r="D8" s="164"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
+      <c r="A10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="162" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
+      <c r="A12" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
+      <c r="A14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="56"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="145"/>
+      <c r="B17" s="161" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="161"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="35"/>
+      <c r="C18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20140,150 +20636,135 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.6640625" style="68"/>
-    <col min="5" max="5" width="19" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="68"/>
+    <col min="1" max="1" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.6640625" style="67"/>
+    <col min="5" max="5" width="19" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="A1" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
+      <c r="A5" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="162" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="A7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="146" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="A9" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="163"/>
+      <c r="D9" s="164"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="A11" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
+      <c r="A13" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="I15" s="58"/>
+      <c r="A15" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I16" s="59"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17" s="59"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="58" t="s">
-        <v>163</v>
+      <c r="B18" s="57" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="69"/>
+      <c r="D20" s="68"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="68" t="s">
-        <v>160</v>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="67" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -20307,48 +20788,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="34"/>
+    <col min="1" max="1" width="12.08203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="41" t="s">
+      <c r="C2" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>71</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -20358,261 +20839,261 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="37" t="s">
         <v>132</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38">
+      <c r="C4" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="37">
         <v>20</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>127</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="38">
+      <c r="C5" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="37">
         <v>10</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37" t="s">
-        <v>124</v>
+      <c r="E5" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="B6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="37">
         <v>255</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="B7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>119</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+      <c r="B8" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
         <v>116</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>112</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="37" t="s">
-        <v>111</v>
+      <c r="C10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="37" t="s">
-        <v>111</v>
+      <c r="F11" s="37"/>
+      <c r="G11" s="36" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="41" t="s">
+      <c r="C14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="F14" s="40" t="s">
         <v>71</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="43" t="s">
+      <c r="C15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>107</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="38">
+      <c r="B16" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="37">
         <v>255</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37" t="s">
-        <v>104</v>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
+      <c r="B18" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
         <v>101</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20620,118 +21101,118 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="F21" s="40" t="s">
         <v>71</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="43" t="s">
+      <c r="B22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>66</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="37"/>
+      <c r="C23" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37" t="s">
+      <c r="C24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
         <v>46</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="37" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
         <v>46</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="E28" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="F28" s="40" t="s">
         <v>71</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -20739,23 +21220,23 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>93</v>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -20765,250 +21246,250 @@
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="38">
+      <c r="C30" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="37">
         <v>30</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="38" t="s">
+      <c r="E30" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>91</v>
+      <c r="F30" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="37" t="s">
         <v>87</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="38">
+      <c r="C32" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="37">
         <v>10</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="37" t="s">
         <v>82</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>57</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="37" t="s">
-        <v>80</v>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="37"/>
+      <c r="G34" s="36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="37" t="s">
-        <v>78</v>
+      <c r="F35" s="37"/>
+      <c r="G35" s="36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="D38" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="E38" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="F38" s="40" t="s">
         <v>71</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>66</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="37" t="s">
         <v>61</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="37" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37" t="s">
         <v>57</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="F42" s="37" t="s">
         <v>53</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="37" t="s">
-        <v>46</v>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="37" t="s">
+      <c r="D44" s="37"/>
+      <c r="E44" s="37" t="s">
         <v>46</v>
+      </c>
+      <c r="F44" s="37"/>
+      <c r="G44" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -21022,7 +21503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -21033,22 +21514,22 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21056,13 +21537,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21070,13 +21551,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21084,13 +21565,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21098,17 +21579,395 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.1640625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="71"/>
+      <c r="J2" s="76">
+        <v>12</v>
+      </c>
+      <c r="K2" s="77">
+        <v>13</v>
+      </c>
+      <c r="L2" s="77">
+        <v>14</v>
+      </c>
+      <c r="M2" s="76">
+        <v>15</v>
+      </c>
+      <c r="N2" s="76">
+        <v>16</v>
+      </c>
+      <c r="O2" s="76">
+        <v>17</v>
+      </c>
+      <c r="P2" s="76">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="76">
+        <v>19</v>
+      </c>
+      <c r="R2" s="77">
+        <v>20</v>
+      </c>
+      <c r="S2" s="77">
+        <v>21</v>
+      </c>
+      <c r="T2" s="76">
+        <v>22</v>
+      </c>
+      <c r="U2" s="76">
+        <v>23</v>
+      </c>
+      <c r="V2" s="76">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="79"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+    </row>
+    <row r="5" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="167"/>
+      <c r="G5" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="167"/>
+      <c r="G6" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="167"/>
+      <c r="G7" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="72"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="167"/>
+      <c r="G8" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="72"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="168"/>
+      <c r="G9" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="72"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="79"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="F4:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>